--- a/Running projects/Citi Bank Dolmen Sky Tower/PO/006- Purchase order- for WCPU - Captive aire - Dunham Bush.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/PO/006- Purchase order- for WCPU - Captive aire - Dunham Bush.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5C67B-E3E3-4F20-86B1-75376994519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136571E-AE11-4DEB-8EC3-8758381A400D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>S No.</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Note: The units will be transferred and need to be delivered by 3rd week of October 2024.</t>
+  </si>
+  <si>
+    <t>Price add of Micro-vision controller and BacNet over IP</t>
+  </si>
+  <si>
+    <t>iv</t>
   </si>
 </sst>
 </file>
@@ -390,6 +396,9 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,9 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -425,13 +431,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1608665</xdr:colOff>
+      <xdr:colOff>1428749</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>168274</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>153458</xdr:rowOff>
     </xdr:to>
@@ -463,7 +469,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2042582" y="0"/>
+          <a:off x="1862666" y="0"/>
           <a:ext cx="2496609" cy="1105958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -500,13 +506,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>374837</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -891,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:I45"/>
+  <dimension ref="A11:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,7 +922,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="F11" s="6">
-        <v>45488</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -942,14 +948,14 @@
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -973,7 +979,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" s="12" customFormat="1" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="23" t="s">
         <v>20</v>
@@ -1006,7 +1012,7 @@
       <c r="E21" s="24">
         <v>1342615</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="26">
         <f t="shared" ref="F21:F22" si="0">E21*C21</f>
         <v>1342615</v>
       </c>
@@ -1029,14 +1035,14 @@
       <c r="E22" s="24">
         <v>2678845</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="26">
         <f t="shared" si="0"/>
         <v>5357690</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" s="12" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1052,107 +1058,124 @@
       <c r="E23" s="24">
         <v>2079695</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="26">
         <f>E23</f>
         <v>2079695</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:9" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="24">
+        <v>605640</v>
+      </c>
+      <c r="F24" s="26">
+        <f>E24</f>
+        <v>605640</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="22">
-        <f>SUM(F21:F23)</f>
-        <v>8780000</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8">
-        <f t="shared" ref="I24" si="1">H24*1.17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="22">
-        <f>F24*2%</f>
-        <v>175600</v>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="25">
+        <f>SUM(F21:F24)</f>
+        <v>9385640</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8">
-        <f t="shared" ref="I25:I26" si="2">H25*1.17</f>
+        <f t="shared" ref="I25" si="1">H25*1.17</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25">
-        <f>F24-F25</f>
-        <v>8604400</v>
+      <c r="A26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="22">
+        <f>F25*2%</f>
+        <v>187712.80000000002</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8">
+        <f t="shared" ref="I26:I27" si="2">H26*1.17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25">
+        <f>F25-F26</f>
+        <v>9197927.1999999993</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="8">
-        <f t="shared" ref="I32:I45" si="3">H32*1.17</f>
-        <v>0</v>
-      </c>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I33:I46" si="3">H33*1.17</f>
         <v>0</v>
       </c>
     </row>
@@ -1168,16 +1191,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>4</v>
-      </c>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I36" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="I37" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1231,13 +1254,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
